--- a/tests/output_example.xlsx
+++ b/tests/output_example.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.ssi.govt.nz\userss\sanas001\Documents\Simon's Documents\GDAT tool\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MAA2016-15 Supporting the Social Investment Unit\Preparing the dataset assembly tool for publication\GDAT tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F63BD9-0C03-4AB7-B7CD-2D40A4B44DD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$70</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="35">
   <si>
     <t>label_summary_period</t>
   </si>
@@ -124,12 +123,21 @@
   </si>
   <si>
     <t>"registration to appointment"</t>
+  </si>
+  <si>
+    <t>"avg_payment"</t>
+  </si>
+  <si>
+    <t>"dist_payments"</t>
+  </si>
+  <si>
+    <t>"avg_payment_prop"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,24 +449,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -554,7 +562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -586,7 +594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -618,7 +626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -650,7 +658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -682,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -714,7 +722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -746,7 +754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -778,7 +786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -810,7 +818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -842,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -874,7 +882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -906,7 +914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -938,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -970,103 +978,103 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="D17" s="1">
-        <v>43830</v>
+        <v>41000</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="D18" s="1">
-        <v>43830</v>
+        <v>41000</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>52.46</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="D19" s="1">
-        <v>43830</v>
+        <v>41000</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1083,22 +1091,22 @@
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1115,22 +1123,22 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1156,13 +1164,13 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1179,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1188,13 +1196,13 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1211,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1220,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1243,22 +1251,22 @@
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1275,22 +1283,22 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1307,22 +1315,22 @@
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>1001.64</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1339,22 +1347,22 @@
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1371,22 +1379,22 @@
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1403,22 +1411,22 @@
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>338</v>
+        <v>1001.64</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1435,214 +1443,214 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>41000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>338</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>41000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <v>278</v>
       </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>11</v>
       </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1">
-        <v>43101</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43466</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1">
-        <v>43101</v>
-      </c>
-      <c r="D33" s="1">
-        <v>43466</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="1">
-        <v>43101</v>
-      </c>
-      <c r="D34" s="1">
-        <v>43466</v>
-      </c>
-      <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
       <c r="J34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
-        <v>43101</v>
+        <v>41000</v>
       </c>
       <c r="D35" s="1">
-        <v>43466</v>
+        <v>43830</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
-        <v>43101</v>
+        <v>41000</v>
       </c>
       <c r="D36" s="1">
-        <v>43466</v>
+        <v>43830</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>500.82</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1">
-        <v>43101</v>
+        <v>41000</v>
       </c>
       <c r="D37" s="1">
-        <v>43466</v>
+        <v>43830</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1659,22 +1667,22 @@
         <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1691,22 +1699,22 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1723,7 +1731,7 @@
         <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1732,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1755,22 +1763,22 @@
         <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G41">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1787,22 +1795,22 @@
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G42">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1819,22 +1827,22 @@
         <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G43">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1851,22 +1859,22 @@
         <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1883,22 +1891,22 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G45">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1915,310 +1923,310 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>80</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>80</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>122</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="G46">
+      <c r="G52">
         <v>122</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>11</v>
       </c>
-      <c r="J46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="1">
-        <v>43466</v>
-      </c>
-      <c r="D47" s="1">
-        <v>43830</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="1">
-        <v>43466</v>
-      </c>
-      <c r="D48" s="1">
-        <v>43830</v>
-      </c>
-      <c r="E48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="J48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="1">
-        <v>43466</v>
-      </c>
-      <c r="D49" s="1">
-        <v>43830</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="1">
-        <v>43466</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43830</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="1">
-        <v>43466</v>
-      </c>
-      <c r="D51" s="1">
-        <v>43830</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53">
         <v>20</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="1">
-        <v>43466</v>
-      </c>
-      <c r="D52" s="1">
-        <v>43830</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
-        <v>4</v>
-      </c>
-      <c r="J52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="1">
-        <v>43466</v>
-      </c>
-      <c r="D53" s="1">
-        <v>43830</v>
-      </c>
-      <c r="E53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="D54" s="1">
-        <v>43830</v>
+        <v>43466</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="D55" s="1">
-        <v>43830</v>
+        <v>43466</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2235,22 +2243,22 @@
         <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G56">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2267,22 +2275,22 @@
         <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2299,22 +2307,22 @@
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G58">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2331,22 +2339,22 @@
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G59">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2363,22 +2371,22 @@
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G60">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2395,269 +2403,648 @@
         <v>29</v>
       </c>
       <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>300</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>300</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>300</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>300</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>9</v>
+      </c>
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69">
+        <v>93</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
         <v>14</v>
       </c>
-      <c r="G61">
+      <c r="G70">
         <v>93</v>
       </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>11</v>
       </c>
-      <c r="J61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71">
+        <v>300</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>12</v>
+      </c>
+      <c r="J71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72">
+        <v>300</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43830</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>24</v>
+      </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J61" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J70"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
